--- a/cleanedMedical Devices.xlsx
+++ b/cleanedMedical Devices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adekunleadeniran\nafdac\lasa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23CFEAD-D5D3-4B8D-AA14-81DED885BDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2967A3CC-15C0-44D1-A751-B060ABC40091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1846">
   <si>
     <t>ApplicationID</t>
   </si>
@@ -5951,26 +5951,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L299"/>
+  <dimension ref="A1:L298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="55.21875" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -17996,40 +17995,40 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C295" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D295" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E295" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="F295" t="s">
         <v>1140</v>
       </c>
       <c r="G295" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="J295" t="str">
-        <f>HYPERLINK("downloaded_images\A3-101418_front.jpeg", "A3-101418_front.jpeg")</f>
-        <v>A3-101418_front.jpeg</v>
+        <f>HYPERLINK("downloaded_images\A3-101446_front.jpeg", "A3-101446_front.jpeg")</f>
+        <v>A3-101446_front.jpeg</v>
       </c>
       <c r="K295" t="str">
-        <f>HYPERLINK("downloaded_images\A3-101418_whole.jpeg", "A3-101418_whole.jpeg")</f>
-        <v>A3-101418_whole.jpeg</v>
+        <f>HYPERLINK("downloaded_images\A3-101446_whole.jpeg", "A3-101446_whole.jpeg")</f>
+        <v>A3-101446_whole.jpeg</v>
       </c>
       <c r="L295" t="str">
-        <f>HYPERLINK("downloaded_images\A3-101418.jpeg", "A3-101418.jpeg")</f>
-        <v>A3-101418.jpeg</v>
+        <f>HYPERLINK("downloaded_images\A3-101446.jpeg", "A3-101446.jpeg")</f>
+        <v>A3-101446.jpeg</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
@@ -18037,40 +18036,40 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C296" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D296" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E296" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="F296" t="s">
         <v>1140</v>
       </c>
       <c r="G296" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="J296" t="str">
-        <f>HYPERLINK("downloaded_images\A3-101446_front.jpeg", "A3-101446_front.jpeg")</f>
-        <v>A3-101446_front.jpeg</v>
+        <f>HYPERLINK("downloaded_images\A3-101439_front.jpeg", "A3-101439_front.jpeg")</f>
+        <v>A3-101439_front.jpeg</v>
       </c>
       <c r="K296" t="str">
-        <f>HYPERLINK("downloaded_images\A3-101446_whole.jpeg", "A3-101446_whole.jpeg")</f>
-        <v>A3-101446_whole.jpeg</v>
+        <f>HYPERLINK("downloaded_images\A3-101439_whole.jpeg", "A3-101439_whole.jpeg")</f>
+        <v>A3-101439_whole.jpeg</v>
       </c>
       <c r="L296" t="str">
-        <f>HYPERLINK("downloaded_images\A3-101446.jpeg", "A3-101446.jpeg")</f>
-        <v>A3-101446.jpeg</v>
+        <f>HYPERLINK("downloaded_images\A3-101439.jpeg", "A3-101439.jpeg")</f>
+        <v>A3-101439.jpeg</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
@@ -18078,40 +18077,40 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C297" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D297" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E297" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="F297" t="s">
         <v>1140</v>
       </c>
       <c r="G297" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="J297" t="str">
-        <f>HYPERLINK("downloaded_images\A3-101439_front.jpeg", "A3-101439_front.jpeg")</f>
-        <v>A3-101439_front.jpeg</v>
+        <f>HYPERLINK("downloaded_images\A3-101373_front.jpeg", "A3-101373_front.jpeg")</f>
+        <v>A3-101373_front.jpeg</v>
       </c>
       <c r="K297" t="str">
-        <f>HYPERLINK("downloaded_images\A3-101439_whole.jpeg", "A3-101439_whole.jpeg")</f>
-        <v>A3-101439_whole.jpeg</v>
+        <f>HYPERLINK("downloaded_images\A3-101373_whole.jpeg", "A3-101373_whole.jpeg")</f>
+        <v>A3-101373_whole.jpeg</v>
       </c>
       <c r="L297" t="str">
-        <f>HYPERLINK("downloaded_images\A3-101439.jpeg", "A3-101439.jpeg")</f>
-        <v>A3-101439.jpeg</v>
+        <f>HYPERLINK("downloaded_images\A3-101373.jpeg", "A3-101373.jpeg")</f>
+        <v>A3-101373.jpeg</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
@@ -18119,79 +18118,38 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C298" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D298" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E298" t="s">
-        <v>1139</v>
+        <v>987</v>
       </c>
       <c r="F298" t="s">
         <v>1140</v>
       </c>
       <c r="G298" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="J298" t="str">
-        <f>HYPERLINK("downloaded_images\A3-101373_front.jpeg", "A3-101373_front.jpeg")</f>
-        <v>A3-101373_front.jpeg</v>
-      </c>
-      <c r="K298" t="str">
-        <f>HYPERLINK("downloaded_images\A3-101373_whole.jpeg", "A3-101373_whole.jpeg")</f>
-        <v>A3-101373_whole.jpeg</v>
-      </c>
-      <c r="L298" t="str">
-        <f>HYPERLINK("downloaded_images\A3-101373.jpeg", "A3-101373.jpeg")</f>
-        <v>A3-101373.jpeg</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A299">
-        <v>298</v>
-      </c>
-      <c r="B299" t="s">
-        <v>307</v>
-      </c>
-      <c r="C299" t="s">
-        <v>602</v>
-      </c>
-      <c r="D299" t="s">
-        <v>899</v>
-      </c>
-      <c r="E299" t="s">
-        <v>987</v>
-      </c>
-      <c r="F299" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G299" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H299" s="2" t="s">
-        <v>1548</v>
-      </c>
-      <c r="I299" s="2" t="s">
-        <v>1844</v>
-      </c>
-      <c r="J299" t="str">
         <f>HYPERLINK("downloaded_images\A3-101430_front.jpeg", "A3-101430_front.jpeg")</f>
         <v>A3-101430_front.jpeg</v>
       </c>
-      <c r="K299" t="str">
+      <c r="K298" t="str">
         <f>HYPERLINK("downloaded_images\A3-101430_whole.jpeg", "A3-101430_whole.jpeg")</f>
         <v>A3-101430_whole.jpeg</v>
       </c>
-      <c r="L299" t="str">
+      <c r="L298" t="str">
         <f>HYPERLINK("downloaded_images\A3-101430.jpeg", "A3-101430.jpeg")</f>
         <v>A3-101430.jpeg</v>
       </c>
@@ -18792,8 +18750,6 @@
     <hyperlink ref="I297" r:id="rId592" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
     <hyperlink ref="H298" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
     <hyperlink ref="I298" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
-    <hyperlink ref="H299" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
-    <hyperlink ref="I299" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
